--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -485,17 +485,17 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[730, 734]</t>
+          <t>[734]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.755244755244755</v>
+        <v>4.651162790697675</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5594405594405595</v>
+        <v>0.5471956224350205</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5594405594405595</v>
+        <v>0.5471956224350205</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[734]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.818181818181818</v>
+        <v>1.778385772913817</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 707, 719]</t>
+          <t>[553, 719]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.272727272727272</v>
+        <v>7.113543091655266</v>
       </c>
     </row>
     <row r="7">
@@ -645,17 +645,17 @@
         <v>61</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[748]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.531468531468532</v>
+        <v>8.344733242134064</v>
       </c>
     </row>
     <row r="8">
@@ -677,17 +677,17 @@
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[744]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.398601398601399</v>
+        <v>1.367989056087551</v>
       </c>
     </row>
     <row r="9">
@@ -709,17 +709,17 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[711]</t>
+          <t>[711, 752]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.538461538461539</v>
+        <v>1.504787961696306</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 728]</t>
+          <t>[625]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.496503496503497</v>
+        <v>3.556771545827633</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[9, 752]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 756]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.958041958041958</v>
+        <v>2.051983584131327</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[476, 713]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 499, 531, 578, 621, 710]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.636363636363636</v>
+        <v>3.830369357045144</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8391608391608392</v>
+        <v>0.8207934336525308</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5594405594405595</v>
+        <v>0.5471956224350205</v>
       </c>
     </row>
     <row r="15">
@@ -901,17 +901,17 @@
         <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[745]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.957592339261286</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.258741258741259</v>
+        <v>1.231190150478796</v>
       </c>
     </row>
     <row r="17">
@@ -975,7 +975,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[684]</t>
+          <t>[739]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.356643356643357</v>
+        <v>3.283173734610123</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.818181818181818</v>
+        <v>1.778385772913817</v>
       </c>
     </row>
     <row r="19">
@@ -1029,17 +1029,17 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[711]</t>
+          <t>[711, 752]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.377622377622377</v>
+        <v>2.325581395348837</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[626, 631, 703, 705]</t>
+          <t>[626, 631, 703, 705, 726, 741, 742]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.916083916083916</v>
+        <v>3.830369357045144</v>
       </c>
     </row>
     <row r="21">
@@ -1093,17 +1093,17 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[701, 712, 720]</t>
+          <t>[701, 712, 720, 736, 758]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.335664335664335</v>
+        <v>4.240766073871409</v>
       </c>
     </row>
     <row r="22">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.398601398601399</v>
+        <v>1.367989056087551</v>
       </c>
     </row>
     <row r="23">
@@ -1157,17 +1157,17 @@
         <v>29</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[736]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.055944055944056</v>
+        <v>3.967168262653899</v>
       </c>
     </row>
     <row r="24">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" t="n">
         <v>97</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.916083916083916</v>
+        <v>4.103967168262654</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E25" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 603, 644, 657, 659, 675, 685, 686, 699, 710, 722]</t>
+          <t>[13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 690]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 690, 737]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.90909090909091</v>
+        <v>11.08071135430917</v>
       </c>
     </row>
     <row r="26">
@@ -1250,13 +1250,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="n">
         <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>80</v>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 485, 505, 526, 527, 528, 584, 607, 618]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 485, 505, 526, 527, 528, 584, 607, 618, 737]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.895104895104895</v>
+        <v>4.924760601915184</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E27" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[547, 680, 682, 683, 689, 695, 697, 698, 700, 710]</t>
+          <t>[547, 695, 697, 698, 748, 762, 776, 779, 780]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 692]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 700, 710]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.88111888111888</v>
+        <v>19.28864569083447</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9790209790209791</v>
+        <v>0.957592339261286</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[734]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.651162790697675</v>
+        <v>4.780876494023905</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5471956224350205</v>
+        <v>0.5312084993359893</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5471956224350205</v>
+        <v>0.5312084993359893</v>
       </c>
     </row>
     <row r="5">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -596,11 +596,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 743]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.778385772913817</v>
+        <v>1.859229747675963</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 719]</t>
+          <t>[553, 707, 719, 800]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.113543091655266</v>
+        <v>6.905710491367861</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
         <v>98</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[748]</t>
+          <t>[780]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.344733242134064</v>
+        <v>8.233731739707835</v>
       </c>
     </row>
     <row r="8">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 755]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.367989056087551</v>
+        <v>1.593625498007968</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[711, 752]</t>
+          <t>[752]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.504787961696306</v>
+        <v>1.593625498007968</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625]</t>
+          <t>[625, 781]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728, 755, 790]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.556771545827633</v>
+        <v>3.718459495351926</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.051983584131327</v>
+        <v>1.99203187250996</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.830369357045144</v>
+        <v>3.718459495351926</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8207934336525308</v>
+        <v>0.796812749003984</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5471956224350205</v>
+        <v>0.5312084993359893</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.957592339261286</v>
+        <v>0.9296148738379815</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.231190150478796</v>
+        <v>1.195219123505976</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[739]</t>
+          <t>[739, 812]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 687, 704, 710]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.283173734610123</v>
+        <v>3.320053120849933</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.778385772913817</v>
+        <v>1.726427622841965</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.325581395348837</v>
+        <v>2.257636122177955</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="n">
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[626, 631, 703, 705, 726, 741, 742]</t>
+          <t>[626, 631, 703, 726, 741, 742, 771]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 710]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 705, 710]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.830369357045144</v>
+        <v>3.851261620185923</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" t="n">
         <v>86</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[701, 712, 720, 736, 758]</t>
+          <t>[701, 712, 736, 758, 814]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 710]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 710, 720]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.240766073871409</v>
+        <v>4.249667994687915</v>
       </c>
     </row>
     <row r="22">
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1140,11 +1140,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 476, 499, 691, 698]</t>
+          <t>[25, 154, 190, 244, 296, 350, 476, 499, 691, 698, 780]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.367989056087551</v>
+        <v>1.460823373173971</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
         <v>97</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[736]</t>
+          <t>[802]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.967168262653899</v>
+        <v>4.116865869853918</v>
       </c>
     </row>
     <row r="24">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="n">
         <v>97</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.103967168262654</v>
+        <v>4.116865869853918</v>
       </c>
     </row>
     <row r="25">
@@ -1221,17 +1221,17 @@
         <v>81</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E25" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769]</t>
+          <t>[13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769, 792, 815]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.08071135430917</v>
+        <v>10.75697211155378</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 476, 570, 580, 649, 650, 673]</t>
+          <t>[354, 389, 413, 476, 570, 580, 649, 650, 673, 761, 773, 774]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.924760601915184</v>
+        <v>4.780876494023905</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C27" t="n">
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E27" t="n">
         <v>94</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[547, 695, 697, 698, 748, 762, 776, 779, 780]</t>
+          <t>[547, 695, 697, 698, 748, 762, 776, 780, 818]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 700, 710]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 700, 710, 764, 770, 779, 793, 794]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.28864569083447</v>
+        <v>19.38911022576361</v>
       </c>
     </row>
     <row r="28">
@@ -1314,13 +1314,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[147, 190, 350, 355, 476, 582, 710]</t>
+          <t>[147, 190, 350, 355, 476, 582, 710, 729]</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.957592339261286</v>
+        <v>1.062416998671979</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.780876494023905</v>
+        <v>4.651162790697675</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5312084993359893</v>
+        <v>0.516795865633075</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5312084993359893</v>
+        <v>0.516795865633075</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.859229747675963</v>
+        <v>1.808785529715762</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 707, 719, 800]</t>
+          <t>[553]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 710]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.905710491367861</v>
+        <v>7.10594315245478</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>98</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[780]</t>
+          <t>[828]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.233731739707835</v>
+        <v>8.2687338501292</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.593625498007968</v>
+        <v>1.550387596899225</v>
       </c>
     </row>
     <row r="9">
@@ -709,17 +709,17 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[752]</t>
+          <t>[752, 837]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.593625498007968</v>
+        <v>1.550387596899225</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 781]</t>
+          <t>[625, 835, 836]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728, 755, 790]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.718459495351926</v>
+        <v>3.746770025839794</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.99203187250996</v>
+        <v>1.937984496124031</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.718459495351926</v>
+        <v>3.617571059431524</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.796812749003984</v>
+        <v>0.7751937984496124</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5312084993359893</v>
+        <v>0.516795865633075</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9296148738379815</v>
+        <v>0.9043927648578811</v>
       </c>
     </row>
     <row r="16">
@@ -933,17 +933,17 @@
         <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529]</t>
+          <t>[210, 529, 836]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.195219123505976</v>
+        <v>1.162790697674419</v>
       </c>
     </row>
     <row r="17">
@@ -965,17 +965,17 @@
         <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[739, 812]</t>
+          <t>[739, 812, 821, 836]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.320053120849933</v>
+        <v>3.229974160206718</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.726427622841965</v>
+        <v>1.679586563307494</v>
       </c>
     </row>
     <row r="19">
@@ -1026,29 +1026,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[711, 752]</t>
+          <t>[752]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 721]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.257636122177955</v>
+        <v>2.325581395348837</v>
       </c>
     </row>
     <row r="20">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.851261620185923</v>
+        <v>3.746770025839794</v>
       </c>
     </row>
     <row r="21">
@@ -1093,17 +1093,17 @@
         <v>32</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[701, 712, 736, 758, 814]</t>
+          <t>[701, 712, 736, 758, 814, 824]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.249667994687915</v>
+        <v>4.1343669250646</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 476, 499, 691, 698, 780]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.460823373173971</v>
+        <v>1.679586563307494</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>97</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[802]</t>
+          <t>[835]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.116865869853918</v>
+        <v>4.1343669250646</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.116865869853918</v>
+        <v>4.00516795865633</v>
       </c>
     </row>
     <row r="25">
@@ -1221,17 +1221,17 @@
         <v>81</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" t="n">
         <v>84</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 644, 657, 659, 685, 686, 699, 710, 722, 750, 753, 769, 792, 815]</t>
+          <t>[13, 34, 644, 657, 659, 685, 686, 699, 710, 750, 753, 769, 792, 829, 837, 840]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.75697211155378</v>
+        <v>10.46511627906977</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 476, 570, 580, 649, 650, 673, 761, 773, 774]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 485, 505, 526, 527, 528, 584, 607, 618, 737]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.780876494023905</v>
+        <v>5.038759689922481</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E27" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[547, 695, 697, 698, 748, 762, 776, 780, 818]</t>
+          <t>[547, 695, 762, 820, 835, 851]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 700, 710, 764, 770, 779, 793, 794]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 764, 770, 776, 779, 780, 793, 794, 818, 823, 839]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.38911022576361</v>
+        <v>19.89664082687338</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.062416998671979</v>
+        <v>1.03359173126615</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -645,17 +645,17 @@
         <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[828]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[879]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.651162790697675</v>
+        <v>4.625</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.516795865633075</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.516795865633075</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[734]</t>
+          <t>[734, 879]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 743]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 743, 873]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.808785529715762</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553]</t>
+          <t>[553, 835, 879]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 846, 847, 848, 849, 858]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.10594315245478</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -660,11 +660,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.2687338501292</v>
+        <v>8.125</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.550387596899225</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.550387596899225</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 835, 836]</t>
+          <t>[625, 835, 836, 886]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.746770025839794</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="11">
@@ -773,17 +773,17 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 752]</t>
+          <t>[9, 752, 870]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.937984496124031</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[867]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.617571059431524</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7751937984496124</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.516795865633075</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9043927648578811</v>
+        <v>0.8750000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -930,29 +930,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529, 836]</t>
+          <t>[210, 529]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718]</t>
+          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718, 836]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.162790697674419</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[739, 812, 821, 836]</t>
+          <t>[739, 821, 836, 892, 894]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 812]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.229974160206718</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.679586563307494</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.325581395348837</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[626, 631, 703, 726, 741, 742, 771]</t>
+          <t>[631, 771, 835]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 705, 710]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.746770025839794</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[701, 712, 736, 758, 814, 824]</t>
+          <t>[712, 736, 758, 814, 824, 869]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 710, 720]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 720]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.1343669250646</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 880]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.679586563307494</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="23">
@@ -1157,17 +1157,17 @@
         <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[835]</t>
+          <t>[835, 879]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.1343669250646</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1186,29 +1186,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[553]</t>
+          <t>[553, 876]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 883]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.00516795865633</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E25" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 644, 657, 659, 685, 686, 699, 710, 750, 753, 769, 792, 829, 837, 840]</t>
+          <t>[13, 644, 657, 659, 685, 699, 750, 753, 769, 792, 815, 829, 837, 840, 860, 864, 877, 879]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 690, 737]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 686, 690, 710, 722, 737]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.46511627906977</v>
+        <v>10.625</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737, 869]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.038759689922481</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C27" t="n">
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E27" t="n">
         <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[547, 695, 762, 820, 835, 851]</t>
+          <t>[695, 762, 835, 868, 871, 875]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 764, 770, 776, 779, 780, 793, 794, 818, 823, 839]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.89664082687338</v>
+        <v>19.625</v>
       </c>
     </row>
     <row r="28">
@@ -1317,17 +1317,17 @@
         <v>8</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[836]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.03359173126615</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>38</v>
       </c>
       <c r="E2" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[879]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.625</v>
+        <v>4.606060606060606</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.875</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 835, 879]</t>
+          <t>[553, 835, 879, 908]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>7.272727272727272</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.125</v>
+        <v>7.878787878787878</v>
       </c>
     </row>
     <row r="8">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 755]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 755, 904]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>1.575757575757576</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[752, 837]</t>
+          <t>[752]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 837]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.5</v>
+        <v>1.575757575757576</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 835, 836, 886]</t>
+          <t>[625, 835, 836]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 886]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.625</v>
+        <v>3.636363636363636</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 752, 870]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 756]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.875</v>
+        <v>2.060606060606061</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[867]</t>
+          <t>[867, 890]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 904]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.625</v>
+        <v>3.636363636363636</v>
       </c>
     </row>
     <row r="13">
@@ -834,29 +834,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[691]</t>
+          <t>[906, 913]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[190, 192, 350, 438, 476, 710]</t>
+          <t>[190, 192, 350, 438, 476, 691, 710]</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.75</v>
+        <v>0.8484848484848486</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8750000000000001</v>
+        <v>0.8484848484848486</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.25</v>
+        <v>1.212121212121212</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[739, 821, 836, 892, 894]</t>
+          <t>[821, 892, 909]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 812]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 836, 894]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.515151515151515</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.625</v>
+        <v>1.575757575757576</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>2.181818181818182</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 771, 835]</t>
+          <t>[631, 907]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.25</v>
+        <v>4.363636363636364</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E21" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[712, 736, 758, 814, 824, 869]</t>
+          <t>[758, 814, 824, 869, 896, 897, 907]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 720]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.125</v>
+        <v>4.242424242424243</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
         <v>26</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 880]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.625</v>
+        <v>1.696969696969697</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[835, 879]</t>
+          <t>[835]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 861, 879, 888]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.242424242424243</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.878787878787879</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>90</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n">
+        <v>106</v>
+      </c>
+      <c r="E25" t="n">
         <v>85</v>
       </c>
-      <c r="C25" t="n">
-        <v>18</v>
-      </c>
-      <c r="D25" t="n">
-        <v>103</v>
-      </c>
-      <c r="E25" t="n">
-        <v>83</v>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 659, 685, 699, 750, 753, 769, 792, 815, 829, 837, 840, 860, 864, 877, 879]</t>
+          <t>[13, 644, 657, 659, 699, 750, 753, 769, 792, 815, 829, 840, 860, 864, 877, 891]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 686, 690, 710, 722, 737]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 837, 861, 879, 888]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.625</v>
+        <v>10.90909090909091</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4.848484848484849</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E27" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 762, 835, 868, 871, 875]</t>
+          <t>[695, 762, 835, 868, 875, 898, 916, 917, 920]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.625</v>
+        <v>19.15151515151515</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -485,17 +485,17 @@
         <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[932, 2]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.606060606060606</v>
+        <v>4.540023894862605</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4778972520908005</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4778972520908005</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[734, 879]</t>
+          <t>[734, 879, 924]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.818181818181818</v>
+        <v>1.792114695340502</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 835, 879, 908]</t>
+          <t>[553, 835, 908, 2]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.272727272727272</v>
+        <v>7.168458781362006</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[933, 2]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.878787878787878</v>
+        <v>7.885304659498208</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.575757575757576</v>
+        <v>1.553166069295101</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.575757575757576</v>
+        <v>1.553166069295101</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 835, 836]</t>
+          <t>[625, 835, 836, 929, 935, 2]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.636363636363636</v>
+        <v>3.584229390681003</v>
       </c>
     </row>
     <row r="11">
@@ -773,17 +773,17 @@
         <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[9, 952, 2]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.060606060606061</v>
+        <v>2.031063321385902</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>94</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[867, 890]</t>
+          <t>[890, 930]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 904]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 904]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.636363636363636</v>
+        <v>3.703703703703703</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8484848484848486</v>
+        <v>0.8363201911589008</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4778972520908005</v>
       </c>
     </row>
     <row r="15">
@@ -898,29 +898,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745]</t>
+          <t>[745, 956]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[190, 259, 350, 476, 509, 641, 655]</t>
+          <t>[190, 259, 350, 476, 509, 641, 655, 947]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.8484848484848486</v>
+        <v>0.9557945041816009</v>
       </c>
     </row>
     <row r="16">
@@ -933,17 +933,17 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529]</t>
+          <t>[210, 529, 929, 932, 933, 2]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.212121212121212</v>
+        <v>1.194743130227001</v>
       </c>
     </row>
     <row r="17">
@@ -965,17 +965,17 @@
         <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[821, 892, 909]</t>
+          <t>[821, 892, 909, 929, 931, 933]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.515151515151515</v>
+        <v>3.464755077658303</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.575757575757576</v>
+        <v>1.553166069295101</v>
       </c>
     </row>
     <row r="19">
@@ -1029,17 +1029,17 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[752]</t>
+          <t>[752, 930]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.181818181818182</v>
+        <v>2.150537634408602</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 907]</t>
+          <t>[631, 907, 942]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.363636363636364</v>
+        <v>4.301075268817205</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[758, 814, 824, 869, 896, 897, 907]</t>
+          <t>[758, 814, 897, 907]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 824, 896]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.242424242424243</v>
+        <v>4.420549581839905</v>
       </c>
     </row>
     <row r="22">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.696969696969697</v>
+        <v>1.672640382317802</v>
       </c>
     </row>
     <row r="23">
@@ -1157,17 +1157,17 @@
         <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[835]</t>
+          <t>[941, 944]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.242424242424243</v>
+        <v>4.181600955794504</v>
       </c>
     </row>
     <row r="24">
@@ -1189,17 +1189,17 @@
         <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[553, 876]</t>
+          <t>[553, 935, 2]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.878787878787879</v>
+        <v>3.823178016726404</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E25" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 659, 699, 750, 753, 769, 792, 815, 829, 840, 860, 864, 877, 891]</t>
+          <t>[13, 644, 657, 659, 699, 750, 753, 769, 792, 829, 860, 864, 877, 891, 941, 948, 2]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 837, 861, 879, 888]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 815, 837, 840, 861, 879, 888]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.90909090909091</v>
+        <v>10.99163679808841</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>40</v>
       </c>
       <c r="C26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.848484848484849</v>
+        <v>4.778972520908005</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 762, 835, 868, 875, 898, 916, 917, 920]</t>
+          <t>[695, 835, 868, 875, 916, 917, 920, 925, 931, 2]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 922, 926]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.15151515151515</v>
+        <v>19.35483870967742</v>
       </c>
     </row>
     <row r="28">
@@ -1314,29 +1314,29 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[836]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[147, 190, 350, 355, 476, 582, 710, 729]</t>
+          <t>[147, 190, 350, 355, 476, 582, 710, 729, 836]</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9696969696969697</v>
+        <v>1.075268817204301</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="n">
         <v>95</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[932, 2]</t>
+          <t>[966, 981]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.540023894862605</v>
+        <v>4.540162980209546</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4778972520908005</v>
+        <v>0.4656577415599534</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4778972520908005</v>
+        <v>0.4656577415599534</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.792114695340502</v>
+        <v>1.746216530849825</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
         <v>94</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 835, 908, 2]</t>
+          <t>[553, 963, 980, 983]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 846, 847, 848, 849, 858]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.168458781362006</v>
+        <v>7.334109429569266</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="n">
         <v>97</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[933, 2]</t>
+          <t>[933, 981]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.885304659498208</v>
+        <v>7.799767171129219</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.553166069295101</v>
+        <v>1.513387660069849</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.553166069295101</v>
+        <v>1.513387660069849</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 835, 836, 929, 935, 2]</t>
+          <t>[625, 835, 836, 929, 935, 2, 960]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.584229390681003</v>
+        <v>3.49243306169965</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 952, 2]</t>
+          <t>[9, 965]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.031063321385902</v>
+        <v>2.09545983701979</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[890, 930]</t>
+          <t>[967, 973]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.703703703703703</v>
+        <v>3.608847497089639</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8363201911589008</v>
+        <v>0.8149010477299184</v>
       </c>
     </row>
     <row r="14">
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[190, 350, 476, 710]</t>
+          <t>[190, 350, 476, 710, 955]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4778972520908005</v>
+        <v>0.5820721769499418</v>
       </c>
     </row>
     <row r="15">
@@ -898,29 +898,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745, 956]</t>
+          <t>[745]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[190, 259, 350, 476, 509, 641, 655, 947]</t>
+          <t>[190, 259, 350, 476, 509, 641, 655, 947, 956, 960]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9557945041816009</v>
+        <v>1.164144353899884</v>
       </c>
     </row>
     <row r="16">
@@ -930,29 +930,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529, 929, 932, 933, 2]</t>
+          <t>[210, 529, 932, 933, 2]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718, 836]</t>
+          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718, 836, 929]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.194743130227001</v>
+        <v>1.280558789289872</v>
       </c>
     </row>
     <row r="17">
@@ -965,17 +965,17 @@
         <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[821, 892, 909, 929, 931, 933]</t>
+          <t>[821, 892, 909, 929, 931, 933, 987]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.464755077658303</v>
+        <v>3.376018626309663</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.553166069295101</v>
+        <v>1.513387660069849</v>
       </c>
     </row>
     <row r="19">
@@ -1026,29 +1026,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[752, 930]</t>
+          <t>[752]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 930]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.150537634408602</v>
+        <v>2.211874272409779</v>
       </c>
     </row>
     <row r="20">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.301075268817205</v>
+        <v>4.190919674039581</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[758, 814, 897, 907]</t>
+          <t>[814, 907, 974]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 824, 896]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 824, 869, 896, 897, 973]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.420549581839905</v>
+        <v>4.772991850989523</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.672640382317802</v>
+        <v>1.746216530849825</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[941, 944]</t>
+          <t>[835, 941, 944]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 861, 879, 888]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 861, 879, 888, 962]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.181600955794504</v>
+        <v>4.190919674039581</v>
       </c>
     </row>
     <row r="24">
@@ -1186,29 +1186,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[553, 935, 2]</t>
+          <t>[553]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 883]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.823178016726404</v>
+        <v>3.958090803259604</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E25" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 659, 699, 750, 753, 769, 792, 829, 860, 864, 877, 891, 941, 948, 2]</t>
+          <t>[13, 644, 657, 659, 699, 750, 877, 891, 948, 2]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 815, 837, 840, 861, 879, 888]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 815, 837, 840, 861, 879, 888, 941]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.99163679808841</v>
+        <v>10.82654249126892</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.778972520908005</v>
+        <v>4.656577415599535</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
         <v>172</v>
       </c>
       <c r="E27" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 920, 925, 931, 2]</t>
+          <t>[695, 835, 868, 875, 916, 917, 931, 972]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 922, 926]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.35483870967742</v>
+        <v>19.09196740395809</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.075268817204301</v>
+        <v>1.047729918509895</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>41</v>
       </c>
       <c r="E2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[966, 981]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.540162980209546</v>
+        <v>4.581005586592179</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4656577415599534</v>
+        <v>0.446927374301676</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4656577415599534</v>
+        <v>0.446927374301676</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[734, 879, 924]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 743, 873]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.746216530849825</v>
+        <v>1.787709497206704</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 963, 980, 983]</t>
+          <t>[553, 963]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.334109429569266</v>
+        <v>7.597765363128492</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[933, 981]</t>
+          <t>[933, 981, 1019, 1020]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 998, 1012]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.799767171129219</v>
+        <v>7.709497206703911</v>
       </c>
     </row>
     <row r="8">
@@ -677,17 +677,17 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[744]</t>
+          <t>[744, 958]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.513387660069849</v>
+        <v>1.452513966480447</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[752]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 837]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.513387660069849</v>
+        <v>1.564245810055866</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 835, 836, 929, 935, 2, 960]</t>
+          <t>[960]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 886]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.49243306169965</v>
+        <v>3.910614525139665</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.09545983701979</v>
+        <v>2.011173184357542</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[967, 973]</t>
+          <t>[967]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 904]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.608847497089639</v>
+        <v>3.798882681564246</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8149010477299184</v>
+        <v>0.782122905027933</v>
       </c>
     </row>
     <row r="14">
@@ -866,29 +866,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[984]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[190, 350, 476, 710, 955]</t>
+          <t>[190, 350, 476, 710, 955, 990]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.5820721769499418</v>
+        <v>0.6703910614525139</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.164144353899884</v>
+        <v>1.11731843575419</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.280558789289872</v>
+        <v>1.229050279329609</v>
       </c>
     </row>
     <row r="17">
@@ -965,17 +965,17 @@
         <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[821, 892, 909, 929, 931, 933, 987]</t>
+          <t>[821, 892, 909, 929, 931, 933, 987, 1016]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.376018626309663</v>
+        <v>3.240223463687151</v>
       </c>
     </row>
     <row r="18">
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710]</t>
+          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710, 998]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.513387660069849</v>
+        <v>1.564245810055866</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.211874272409779</v>
+        <v>2.122905027932961</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 907, 942]</t>
+          <t>[631, 907, 989, 990]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 942]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.190919674039581</v>
+        <v>4.134078212290502</v>
       </c>
     </row>
     <row r="21">
@@ -1093,17 +1093,17 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[814, 907, 974]</t>
+          <t>[814, 907, 974, 998]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.772991850989523</v>
+        <v>4.581005586592179</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.746216530849825</v>
+        <v>1.675977653631285</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>39</v>
       </c>
       <c r="E23" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[835, 941, 944]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 861, 879, 888, 962]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.190919674039581</v>
+        <v>4.357541899441341</v>
       </c>
     </row>
     <row r="24">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="n">
         <v>97</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935, 998]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.958090803259604</v>
+        <v>3.910614525139665</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E25" t="n">
         <v>90</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 659, 699, 750, 877, 891, 948, 2]</t>
+          <t>[13, 644, 657, 659, 699, 750, 877, 891, 948, 1008, 1018]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 815, 837, 840, 861, 879, 888, 941]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 879, 888, 941]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.82654249126892</v>
+        <v>11.06145251396648</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.656577415599535</v>
+        <v>4.46927374301676</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 931, 972]</t>
+          <t>[695, 835, 868, 875, 916, 917]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1023]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.09196740395809</v>
+        <v>18.77094972067039</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.047729918509895</v>
+        <v>1.005586592178771</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.581005586592179</v>
+        <v>4.485776805251642</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.446927374301676</v>
+        <v>0.437636761487965</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.446927374301676</v>
+        <v>0.437636761487965</v>
       </c>
     </row>
     <row r="5">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
         <v>100</v>
@@ -596,11 +596,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.787709497206704</v>
+        <v>1.969365426695842</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>68</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 963]</t>
+          <t>[553, 963, 1063, 1074]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.597765363128492</v>
+        <v>7.439824945295405</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
         <v>95</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[933, 981, 1019, 1020]</t>
+          <t>[933, 1019, 1020, 1031]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 998, 1012]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 981, 998, 1012]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.709497206703911</v>
+        <v>7.658643326039387</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.452513966480447</v>
+        <v>1.422319474835886</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.564245810055866</v>
+        <v>1.531728665207877</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960]</t>
+          <t>[960, 1034]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1040]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.910614525139665</v>
+        <v>3.938730853391685</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.011173184357542</v>
+        <v>1.969365426695842</v>
       </c>
     </row>
     <row r="12">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="n">
         <v>97</v>
@@ -820,11 +820,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.798882681564246</v>
+        <v>3.829321663019694</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7658643326039387</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6703910614525139</v>
+        <v>0.6564551422319475</v>
       </c>
     </row>
     <row r="15">
@@ -901,17 +901,17 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745]</t>
+          <t>[745, 1034]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.11731843575419</v>
+        <v>1.094091903719912</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.229050279329609</v>
+        <v>1.203501094091904</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[821, 892, 909, 929, 931, 933, 987, 1016]</t>
+          <t>[821, 892, 909, 931, 933, 987]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 836, 894]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 836, 894, 929, 1016]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.240223463687151</v>
+        <v>3.391684901531729</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.564245810055866</v>
+        <v>1.531728665207877</v>
       </c>
     </row>
     <row r="19">
@@ -1029,17 +1029,17 @@
         <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[752]</t>
+          <t>[752, 1076]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.122905027932961</v>
+        <v>2.078774617067833</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 907, 989, 990]</t>
+          <t>[631, 907, 989, 990, 1007, 1017, 1035]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.134078212290502</v>
+        <v>4.048140043763676</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[814, 907, 974, 998]</t>
+          <t>[814, 907, 1028, 1035, 1051, 1060]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 824, 869, 896, 897, 973]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 824, 869, 896, 897, 973, 974, 998]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.581005586592179</v>
+        <v>4.704595185995624</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" t="n">
         <v>48</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955, 1049]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.675977653631285</v>
+        <v>1.75054704595186</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1039]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.357541899441341</v>
+        <v>4.37636761487965</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.910614525139665</v>
+        <v>3.829321663019694</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 659, 699, 750, 877, 891, 948, 1008, 1018]</t>
+          <t>[13, 644, 657, 699, 1018, 1049]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 675, 685, 686, 690, 710, 722, 737, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 879, 888, 941]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1064]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.06145251396648</v>
+        <v>11.48796498905908</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.46927374301676</v>
+        <v>4.37636761487965</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E27" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1058, 1065, 1071]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1023]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.77094972067039</v>
+        <v>18.59956236323851</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.005586592178771</v>
+        <v>0.9846827133479212</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.485776805251642</v>
+        <v>4.408602150537634</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.437636761487965</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.437636761487965</v>
+        <v>0.4301075268817204</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1083]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.969365426695842</v>
+        <v>1.935483870967742</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.439824945295405</v>
+        <v>7.311827956989248</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[933, 1019, 1020, 1031]</t>
+          <t>[933, 1019, 1020, 1031, 1087, 1088]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 981, 998, 1012]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 981, 998, 1012, 1065]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.658643326039387</v>
+        <v>7.634408602150537</v>
       </c>
     </row>
     <row r="8">
@@ -674,29 +674,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[744, 958]</t>
+          <t>[958]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 755, 904]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.422319474835886</v>
+        <v>1.505376344086022</v>
       </c>
     </row>
     <row r="9">
@@ -709,17 +709,17 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1087]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.531728665207877</v>
+        <v>1.505376344086022</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
         <v>95</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1034]</t>
+          <t>[960, 1101]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1040]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.938730853391685</v>
+        <v>3.978494623655914</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 965]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.969365426695842</v>
+        <v>2.043010752688172</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.829321663019694</v>
+        <v>3.763440860215054</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7658643326039387</v>
+        <v>0.7526881720430108</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6564551422319475</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.094091903719912</v>
+        <v>1.075268817204301</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.203501094091904</v>
+        <v>1.182795698924731</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" t="n">
         <v>84</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[821, 892, 909, 931, 933, 987]</t>
+          <t>[821, 892, 931, 933, 987, 1087]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 836, 894, 929, 1016]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 836, 894, 909, 929, 1016]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.391684901531729</v>
+        <v>3.440860215053763</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.531728665207877</v>
+        <v>1.505376344086022</v>
       </c>
     </row>
     <row r="19">
@@ -1026,29 +1026,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[752, 1076]</t>
+          <t>[752, 1087]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 930]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 930, 1059, 1076]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.078774617067833</v>
+        <v>2.258064516129032</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 907, 989, 990, 1007, 1017, 1035]</t>
+          <t>[631, 907, 989, 990, 1007, 1017, 1035, 1095]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.048140043763676</v>
+        <v>3.978494623655914</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[814, 907, 1028, 1035, 1051, 1060]</t>
+          <t>[814, 1028, 1051, 1060, 1095]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 824, 869, 896, 897, 973, 974, 998]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 824, 869, 896, 897, 907, 973, 974, 998, 1035]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.704595185995624</v>
+        <v>4.838709677419355</v>
       </c>
     </row>
     <row r="22">
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
         <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1140,11 +1140,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955, 1049]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955, 1049, 1088]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.75054704595186</v>
+        <v>1.827956989247312</v>
       </c>
     </row>
     <row r="23">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.37636761487965</v>
+        <v>4.301075268817205</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.829321663019694</v>
+        <v>3.763440860215054</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1049]</t>
+          <t>[13, 644, 657, 699, 1018]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1064]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.48796498905908</v>
+        <v>11.50537634408602</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>40</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 1090, 1091, 1092, 1093, 1094]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.37636761487965</v>
+        <v>4.301075268817205</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1058, 1065, 1071]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1109, 1146]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1088, 1108]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.59956236323851</v>
+        <v>18.70967741935484</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9846827133479212</v>
+        <v>0.967741935483871</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1169]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.408602150537634</v>
+        <v>4.338842975206612</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -532,11 +532,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[190, 350, 476, 710]</t>
+          <t>[190, 350, 476, 710, 1166]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.5165289256198348</v>
       </c>
     </row>
     <row r="4">
@@ -549,17 +549,17 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1166]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.4132231404958678</v>
       </c>
     </row>
     <row r="5">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>95</v>
@@ -596,11 +596,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1166]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.935483870967742</v>
+        <v>1.962809917355372</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>68</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 963, 1063, 1074]</t>
+          <t>[553, 963, 1063, 1074, 1157, 1166]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.311827956989248</v>
+        <v>7.024793388429752</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>92</v>
@@ -660,11 +660,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 981, 998, 1012, 1065]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 981, 998, 1012, 1065, 1146, 1157, 1166]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.634408602150537</v>
+        <v>7.644628099173553</v>
       </c>
     </row>
     <row r="8">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 1156, 1166]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.505376344086022</v>
+        <v>1.652892561983471</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.505376344086022</v>
+        <v>1.446280991735537</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101]</t>
+          <t>[960, 1101, 1166, 1169]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.978494623655914</v>
+        <v>3.822314049586776</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>95</v>
@@ -788,11 +788,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965, 1166]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.043010752688172</v>
+        <v>2.066115702479339</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[967]</t>
+          <t>[967, 1158]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1166]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.763440860215054</v>
+        <v>3.71900826446281</v>
       </c>
     </row>
     <row r="13">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -852,11 +852,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[190, 192, 350, 438, 476, 691, 710]</t>
+          <t>[190, 192, 350, 438, 476, 691, 710, 1156, 1166]</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.9297520661157025</v>
       </c>
     </row>
     <row r="14">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -884,11 +884,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[190, 350, 476, 710, 955, 990]</t>
+          <t>[190, 350, 476, 710, 955, 990, 1166]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7231404958677686</v>
       </c>
     </row>
     <row r="15">
@@ -901,17 +901,17 @@
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745, 1034]</t>
+          <t>[745, 1034, 1166, 1181]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.075268817204301</v>
+        <v>1.03305785123967</v>
       </c>
     </row>
     <row r="16">
@@ -933,17 +933,17 @@
         <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529, 932, 933, 2]</t>
+          <t>[210, 529, 932, 933, 2, 1166]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.182795698924731</v>
+        <v>1.136363636363636</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[821, 892, 931, 933, 987, 1087]</t>
+          <t>[931, 987, 1087]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 836, 894, 909, 929, 1016]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 1016, 1166]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.440860215053763</v>
+        <v>3.71900826446281</v>
       </c>
     </row>
     <row r="18">
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710, 998]</t>
+          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710, 998, 1166]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.505376344086022</v>
+        <v>1.549586776859504</v>
       </c>
     </row>
     <row r="19">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 930, 1059, 1076]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 930, 1059, 1076, 1166]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.258064516129032</v>
+        <v>2.272727272727273</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 907, 989, 990, 1007, 1017, 1035, 1095]</t>
+          <t>[631, 907, 989, 990, 1017, 1035, 1095]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 942]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 942, 1007, 1166]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.978494623655914</v>
+        <v>4.028925619834711</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[814, 1028, 1051, 1060, 1095]</t>
+          <t>[1060, 1175]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 824, 869, 896, 897, 907, 973, 974, 998, 1035]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1095, 1166]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.838709677419355</v>
+        <v>5.165289256198347</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, 1166]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.827956989247312</v>
+        <v>1.756198347107438</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1039]</t>
+          <t>[1039, 1179]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1166]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.301075268817205</v>
+        <v>4.235537190082645</v>
       </c>
     </row>
     <row r="24">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
         <v>97</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935, 998]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710, 752, 756, 790, 876, 883, 935, 998, 1166, 1179]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.763440860215054</v>
+        <v>3.822314049586776</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018]</t>
+          <t>[13, 644, 657, 699, 1018, 1158, 1183]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1166]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.50537634408602</v>
+        <v>11.15702479338843</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 1090, 1091, 1092, 1093, 1094]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737, 869]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737, 869, 1049]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.301075268817205</v>
+        <v>4.235537190082645</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E27" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1109, 1146]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1163, 1174, 1180]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1088, 1108]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1166, 1173]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.70967741935484</v>
+        <v>18.59504132231405</v>
       </c>
     </row>
     <row r="28">
@@ -1314,13 +1314,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[147, 190, 350, 355, 476, 582, 710, 729, 836]</t>
+          <t>[147, 190, 350, 355, 476, 582, 710, 729, 836, 1166]</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.967741935483871</v>
+        <v>1.03305785123967</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1169]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.338842975206612</v>
+        <v>4.36105476673428</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5165289256198348</v>
+        <v>0.5070993914807302</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4132231404958678</v>
+        <v>0.4056795131845842</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1083]</t>
+          <t>[1083, 1194]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.962809917355372</v>
+        <v>1.926977687626775</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.024793388429752</v>
+        <v>6.896551724137931</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[933, 1019, 1020, 1031, 1087, 1088]</t>
+          <t>[933, 1019, 1020, 1031, 1088, 1214]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.644628099173553</v>
+        <v>7.505070993914807</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.652892561983471</v>
+        <v>1.622718052738337</v>
       </c>
     </row>
     <row r="9">
@@ -706,16 +706,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -724,11 +724,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1166]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.446280991735537</v>
+        <v>1.521298174442191</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101, 1166, 1169]</t>
+          <t>[960, 1101, 1166, 1184]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1169, 1179]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.822314049586776</v>
+        <v>3.955375253549696</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.066115702479339</v>
+        <v>2.028397565922921</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
         <v>95</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[967, 1158]</t>
+          <t>[967, 1195]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1166]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.71900826446281</v>
+        <v>3.752535496957404</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9297520661157025</v>
+        <v>0.9127789046653144</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7231404958677686</v>
+        <v>0.7099391480730223</v>
       </c>
     </row>
     <row r="15">
@@ -898,29 +898,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745, 1034, 1166, 1181]</t>
+          <t>[745, 1034, 1181, 1211]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[190, 259, 350, 476, 509, 641, 655, 947, 956, 960]</t>
+          <t>[190, 259, 350, 476, 509, 641, 655, 947, 956, 960, 1166]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.03305785123967</v>
+        <v>1.115618661257606</v>
       </c>
     </row>
     <row r="16">
@@ -930,29 +930,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529, 932, 933, 2, 1166]</t>
+          <t>[210, 529, 932, 933, 2]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718, 836, 929]</t>
+          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718, 836, 929, 1166]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.136363636363636</v>
+        <v>1.217038539553752</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>39</v>
       </c>
       <c r="E17" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[931, 987, 1087]</t>
+          <t>[931, 1087]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 1016, 1166]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 987, 1016, 1166]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.71900826446281</v>
+        <v>3.752535496957404</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.549586776859504</v>
+        <v>1.521298174442191</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.272727272727273</v>
+        <v>2.231237322515213</v>
       </c>
     </row>
     <row r="20">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.028925619834711</v>
+        <v>3.955375253549696</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
         <v>96</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1060, 1175]</t>
+          <t>[1060, 1207]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1095, 1166]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1095, 1166, 1175]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.165289256198347</v>
+        <v>5.172413793103448</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
         <v>35</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1069, 1166]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955, 1049, 1088]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955, 1049, 1069, 1088, 1166]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.756198347107438</v>
+        <v>1.926977687626775</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1039, 1179]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1166]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1166, 1179]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.235537190082645</v>
+        <v>4.259634888438134</v>
       </c>
     </row>
     <row r="24">
@@ -1189,17 +1189,17 @@
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[553]</t>
+          <t>[553, 1199]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.822314049586776</v>
+        <v>3.752535496957404</v>
       </c>
     </row>
     <row r="25">
@@ -1221,17 +1221,17 @@
         <v>108</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E25" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1158, 1183]</t>
+          <t>[13, 644, 657, 699, 1018, 1158, 1183, 1204]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.15702479338843</v>
+        <v>10.95334685598377</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171, 1217]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.235537190082645</v>
+        <v>4.158215010141988</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1163, 1174, 1180]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1163, 1214]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1166, 1173]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.59504132231405</v>
+        <v>18.86409736308316</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.03305785123967</v>
+        <v>1.01419878296146</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.36105476673428</v>
+        <v>4.211557296767874</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.5070993914807302</v>
+        <v>0.4897159647404506</v>
       </c>
     </row>
     <row r="4">
@@ -546,29 +546,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1166]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[190, 350, 366, 476]</t>
+          <t>[190, 350, 366, 476, 1166]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4056795131845842</v>
+        <v>0.4897159647404506</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1083, 1194]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1166]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.926977687626775</v>
+        <v>2.056807051909892</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
         <v>92</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 963, 1063, 1074, 1157, 1166]</t>
+          <t>[553, 963, 1063, 1074, 1157, 1227]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1166]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.896551724137931</v>
+        <v>6.758080313418217</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[933, 1019, 1020, 1031, 1088, 1214]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 972, 981, 998, 1012, 1065, 1146, 1157, 1166]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.505070993914807</v>
+        <v>7.933398628795299</v>
       </c>
     </row>
     <row r="8">
@@ -674,29 +674,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[958]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 1156, 1166]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.622718052738337</v>
+        <v>1.665034280117532</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>94</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1087]</t>
+          <t>[1260]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1166]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.521298174442191</v>
+        <v>1.567091087169442</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" t="n">
         <v>91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101, 1166, 1184]</t>
+          <t>[960, 1101, 1184, 1254]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1169, 1179]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.955375253549696</v>
+        <v>3.917727717923605</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.028397565922921</v>
+        <v>1.958863858961802</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[967, 1195]</t>
+          <t>[967]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166, 1195, 1240]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.752535496957404</v>
+        <v>3.819784524975514</v>
       </c>
     </row>
     <row r="13">
@@ -834,29 +834,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[906, 913]</t>
+          <t>[906]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[190, 192, 350, 438, 476, 691, 710, 1156, 1166]</t>
+          <t>[190, 192, 350, 438, 476, 691, 710, 913, 1156, 1166]</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9127789046653144</v>
+        <v>0.9794319294809012</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7099391480730223</v>
+        <v>0.6856023506366308</v>
       </c>
     </row>
     <row r="15">
@@ -898,29 +898,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745, 1034, 1181, 1211]</t>
+          <t>[745, 1034, 1211]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[190, 259, 350, 476, 509, 641, 655, 947, 956, 960, 1166]</t>
+          <t>[190, 259, 350, 476, 509, 641, 655, 947, 956, 960, 1166, 1181]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.115618661257606</v>
+        <v>1.175318315377081</v>
       </c>
     </row>
     <row r="16">
@@ -933,17 +933,17 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529, 932, 933, 2]</t>
+          <t>[210, 529, 932, 933]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.217038539553752</v>
+        <v>1.175318315377081</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
         <v>95</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[931, 1087]</t>
+          <t>[931, 1249]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 987, 1016, 1166]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 987, 1016, 1087, 1166]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.752535496957404</v>
+        <v>3.721841332027424</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.521298174442191</v>
+        <v>1.469147894221352</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.231237322515213</v>
+        <v>2.154750244857982</v>
       </c>
     </row>
     <row r="20">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.955375253549696</v>
+        <v>3.819784524975514</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>53</v>
       </c>
       <c r="E21" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1060, 1207]</t>
+          <t>[1060]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1095, 1166, 1175]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1095, 1166, 1175, 1248]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.172413793103448</v>
+        <v>5.093046033300686</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.926977687626775</v>
+        <v>1.860920666013712</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1226]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1166, 1179]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.259634888438134</v>
+        <v>4.211557296767874</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.752535496957404</v>
+        <v>3.623898139079334</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1158, 1183, 1204]</t>
+          <t>[13, 644, 657, 699, 1018, 1158, 1183, 1204, 1226, 1247, 1259, 1260]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1166]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1166, 1240]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.95334685598377</v>
+        <v>10.67580803134182</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E26" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 773, 774, 882, 2, 982, 1090, 1091, 1092, 1093, 1094, 1166, 1171, 1217]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737, 869, 1049]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737, 773, 774, 869, 982, 1049, 1166, 1170, 1171, 1240]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.158215010141988</v>
+        <v>4.701273261508325</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E27" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1163, 1214]</t>
+          <t>[695, 835, 868, 875, 916, 917]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.86409736308316</v>
+        <v>18.70714985308521</v>
       </c>
     </row>
     <row r="28">
@@ -1314,13 +1314,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[147, 190, 350, 355, 476, 582, 710, 729, 836, 1166]</t>
+          <t>[147, 190, 350, 355, 476, 582, 710, 729, 836, 1077, 1166]</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.01419878296146</v>
+        <v>1.077375122428991</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.211557296767874</v>
+        <v>4.146576663452266</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4897159647404506</v>
+        <v>0.4821600771456124</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4897159647404506</v>
+        <v>0.4821600771456124</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1272, 1288]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.056807051909892</v>
+        <v>2.025072324011572</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>69</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 963, 1063, 1074, 1157, 1227]</t>
+          <t>[553, 963, 1063, 1074, 1157, 1227, 1264, 1277]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.758080313418217</v>
+        <v>6.653809064609451</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -660,11 +660,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.933398628795299</v>
+        <v>7.907425265188042</v>
       </c>
     </row>
     <row r="8">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.665034280117532</v>
+        <v>1.735776277724204</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1260]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.567091087169442</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
         <v>91</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101, 1184, 1254]</t>
+          <t>[960, 1101, 1184, 1294]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179, 1254]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.917727717923605</v>
+        <v>3.953712632594021</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.958863858961802</v>
+        <v>1.92864030858245</v>
       </c>
     </row>
     <row r="12">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="n">
         <v>98</v>
@@ -820,11 +820,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166, 1195, 1240]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166, 1195, 1227, 1240]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.819784524975514</v>
+        <v>3.857280617164899</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9794319294809012</v>
+        <v>0.9643201542912248</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6856023506366308</v>
+        <v>0.6750241080038573</v>
       </c>
     </row>
     <row r="15">
@@ -898,29 +898,29 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[745, 1034, 1211]</t>
+          <t>[1211]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[190, 259, 350, 476, 509, 641, 655, 947, 956, 960, 1166, 1181]</t>
+          <t>[190, 259, 350, 476, 509, 641, 655, 710, 745, 947, 956, 960, 1034, 1166, 1181]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.175318315377081</v>
+        <v>1.446480231436837</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.175318315377081</v>
+        <v>1.15718418514947</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.721841332027424</v>
+        <v>3.664416586306654</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.469147894221352</v>
+        <v>1.446480231436837</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.154750244857982</v>
+        <v>2.121504339440694</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
         <v>46</v>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 907, 989, 990, 1017, 1035, 1095]</t>
+          <t>[631, 990, 1017, 1035, 1095, 1300]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 942, 1007, 1166]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 942, 1007, 1166, 1295]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.819784524975514</v>
+        <v>3.857280617164899</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E21" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1060]</t>
+          <t>[1273, 1293]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1095, 1166, 1175, 1248]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.093046033300686</v>
+        <v>5.207328833172613</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.860920666013712</v>
+        <v>1.832208293153327</v>
       </c>
     </row>
     <row r="23">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.211557296767874</v>
+        <v>4.146576663452266</v>
       </c>
     </row>
     <row r="24">
@@ -1189,17 +1189,17 @@
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[553, 1199]</t>
+          <t>[553, 1199, 1275]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.623898139079334</v>
+        <v>3.567984570877531</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
         <v>121</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1158, 1183, 1204, 1226, 1247, 1259, 1260]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1226, 1259, 1260]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1166, 1240]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1240, 1247]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.67580803134182</v>
+        <v>10.80038572806172</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.701273261508325</v>
+        <v>4.628736740597879</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E27" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1292, 1293]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1291]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.70714985308521</v>
+        <v>18.61137897782064</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.077375122428991</v>
+        <v>1.060752169720347</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -485,17 +485,17 @@
         <v>43</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1332]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.146576663452266</v>
+        <v>4.103053435114504</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4821600771456124</v>
+        <v>0.4770992366412214</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4821600771456124</v>
+        <v>0.4770992366412214</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1272, 1288]</t>
+          <t>[1272, 1333, 1336]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.025072324011572</v>
+        <v>2.099236641221374</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553, 963, 1063, 1074, 1157, 1227, 1264, 1277]</t>
+          <t>[963, 1063, 1074, 1157, 1227, 1264, 1277, 1299, 1322, 1324]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1166]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1166]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.653809064609451</v>
+        <v>6.679389312977099</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.907425265188042</v>
+        <v>7.824427480916031</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.735776277724204</v>
+        <v>1.717557251908397</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.639344262295082</v>
+        <v>1.622137404580153</v>
       </c>
     </row>
     <row r="10">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.953712632594021</v>
+        <v>3.912213740458016</v>
       </c>
     </row>
     <row r="11">
@@ -773,17 +773,17 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[9, 1333]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.92864030858245</v>
+        <v>1.908396946564886</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.857280617164899</v>
+        <v>3.816793893129771</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9643201542912248</v>
+        <v>0.9541984732824428</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6750241080038573</v>
+        <v>0.6679389312977099</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.446480231436837</v>
+        <v>1.431297709923664</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.15718418514947</v>
+        <v>1.145038167938931</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.664416586306654</v>
+        <v>3.625954198473282</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.446480231436837</v>
+        <v>1.431297709923664</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.121504339440694</v>
+        <v>2.099236641221374</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 990, 1017, 1035, 1095, 1300]</t>
+          <t>[631, 989, 990, 1095, 1300]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 942, 1007, 1166, 1295]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1166, 1295, 1327]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.857280617164899</v>
+        <v>4.007633587786259</v>
       </c>
     </row>
     <row r="21">
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" t="n">
         <v>96</v>
@@ -1108,11 +1108,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1316]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.207328833172613</v>
+        <v>5.248091603053435</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.832208293153327</v>
+        <v>1.812977099236641</v>
       </c>
     </row>
     <row r="23">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
         <v>98</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.146576663452266</v>
+        <v>4.293893129770993</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.567984570877531</v>
+        <v>3.530534351145039</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1226, 1259, 1260]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1259, 1260, 1306, 1312, 1318, 1325, 1337]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1240, 1247]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.80038572806172</v>
+        <v>10.7824427480916</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.628736740597879</v>
+        <v>4.580152671755725</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C27" t="n">
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E27" t="n">
         <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1292, 1293]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1293, 1330]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1291]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1331]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.61137897782064</v>
+        <v>18.70229007633588</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.060752169720347</v>
+        <v>1.049618320610687</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.103053435114504</v>
+        <v>4.052780395852968</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4770992366412214</v>
+        <v>0.471253534401508</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4770992366412214</v>
+        <v>0.471253534401508</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1272, 1333, 1336]</t>
+          <t>[1272, 1333, 1336, 1354]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.099236641221374</v>
+        <v>2.073515551366635</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.679389312977099</v>
+        <v>6.597549481621112</v>
       </c>
     </row>
     <row r="7">
@@ -645,17 +645,17 @@
         <v>82</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1331, 1363]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.824427480916031</v>
+        <v>7.728557964184732</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.717557251908397</v>
+        <v>1.696512723845429</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.622137404580153</v>
+        <v>1.602262016965127</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101, 1184, 1294]</t>
+          <t>[960, 1101, 1184, 1294, 1347, 1358]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179, 1254]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179, 1254, 1345]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.912213740458016</v>
+        <v>3.958529688972667</v>
       </c>
     </row>
     <row r="11">
@@ -773,17 +773,17 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 1333]</t>
+          <t>[9, 1333, 1354]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.908396946564886</v>
+        <v>1.885014137606032</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.816793893129771</v>
+        <v>3.770028275212064</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9541984732824428</v>
+        <v>0.9425070688030159</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6679389312977099</v>
+        <v>0.6597549481621112</v>
       </c>
     </row>
     <row r="15">
@@ -901,17 +901,17 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[1211]</t>
+          <t>[1211, 1357]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.431297709923664</v>
+        <v>1.413760603204524</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.145038167938931</v>
+        <v>1.131008482563619</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.625954198473282</v>
+        <v>3.581526861451461</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.431297709923664</v>
+        <v>1.413760603204524</v>
       </c>
     </row>
     <row r="19">
@@ -1029,17 +1029,17 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[752, 1087]</t>
+          <t>[752, 1087, 1348]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.099236641221374</v>
+        <v>2.073515551366635</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 989, 990, 1095, 1300]</t>
+          <t>[631, 989, 990, 1017, 1035, 1095, 1300]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.007633587786259</v>
+        <v>3.958529688972667</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1273, 1293]</t>
+          <t>[1293, 1346]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1316]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1273, 1316]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.248091603053435</v>
+        <v>5.27803958529689</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.812977099236641</v>
+        <v>1.790763430725731</v>
       </c>
     </row>
     <row r="23">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.293893129770993</v>
+        <v>4.241281809613572</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.530534351145039</v>
+        <v>3.487276154571159</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1259, 1260, 1306, 1312, 1318, 1325, 1337]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1306, 1348]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1318, 1325, 1329, 1337, 1355]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.7824427480916</v>
+        <v>11.31008482563619</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>48</v>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327]</t>
+          <t>[354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, 1355, 1365]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.580152671755725</v>
+        <v>4.524033930254477</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E27" t="n">
         <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1293, 1330]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1379]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1331]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.70229007633588</v>
+        <v>18.85014137606032</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.049618320610687</v>
+        <v>1.036757775683318</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1332]</t>
+          <t>[1383]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.052780395852968</v>
+        <v>3.992571959145776</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.471253534401508</v>
+        <v>0.4642525533890436</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.471253534401508</v>
+        <v>0.4642525533890436</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.073515551366635</v>
+        <v>2.042711234911792</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[963, 1063, 1074, 1157, 1227, 1264, 1277, 1299, 1322, 1324]</t>
+          <t>[963, 1063, 1074, 1277, 1299, 1324, 1404]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1166]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1157, 1166, 1227, 1264, 1322]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.597549481621112</v>
+        <v>6.870937790157845</v>
       </c>
     </row>
     <row r="7">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
         <v>98</v>
@@ -660,11 +660,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.728557964184732</v>
+        <v>7.799442896935934</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.696512723845429</v>
+        <v>1.671309192200557</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.602262016965127</v>
+        <v>1.578458681522748</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>42</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101, 1184, 1294, 1347, 1358]</t>
+          <t>[960, 1101, 1184, 1294, 1347, 1358, 1408]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.958529688972667</v>
+        <v>3.899721448467967</v>
       </c>
     </row>
     <row r="11">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.885014137606032</v>
+        <v>1.857010213556174</v>
       </c>
     </row>
     <row r="12">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
         <v>98</v>
@@ -820,11 +820,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166, 1195, 1227, 1240]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 476, 499, 531, 578, 621, 710, 713, 835, 867, 890, 904, 930, 973, 1049, 1158, 1166, 1195, 1227, 1240, 1398, 1402]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.770028275212064</v>
+        <v>3.899721448467967</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9425070688030159</v>
+        <v>0.9285051067780872</v>
       </c>
     </row>
     <row r="14">
@@ -866,29 +866,29 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[984]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[190, 350, 476, 710, 955, 990, 1166]</t>
+          <t>[190, 350, 476, 710, 2, 955, 984, 990, 1166]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.6597549481621112</v>
+        <v>0.8356545961002786</v>
       </c>
     </row>
     <row r="15">
@@ -901,17 +901,17 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[1211, 1357]</t>
+          <t>[1357]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.413760603204524</v>
+        <v>1.392757660167131</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.131008482563619</v>
+        <v>1.114206128133705</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.581526861451461</v>
+        <v>3.528319405756732</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.413760603204524</v>
+        <v>1.392757660167131</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.073515551366635</v>
+        <v>2.042711234911792</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 989, 990, 1017, 1035, 1095, 1300]</t>
+          <t>[631, 989, 990, 1017, 1035, 1095, 1300, 1386]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.958529688972667</v>
+        <v>3.899721448467967</v>
       </c>
     </row>
     <row r="21">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.27803958529689</v>
+        <v>5.199628597957289</v>
       </c>
     </row>
     <row r="22">
@@ -1125,17 +1125,17 @@
         <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.790763430725731</v>
+        <v>1.764159702878366</v>
       </c>
     </row>
     <row r="23">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.241281809613572</v>
+        <v>4.178272980501393</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.487276154571159</v>
+        <v>3.435468895078923</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E25" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1306, 1348]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1348]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1318, 1325, 1329, 1337, 1355]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.31008482563619</v>
+        <v>11.42061281337047</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.524033930254477</v>
+        <v>4.456824512534819</v>
       </c>
     </row>
     <row r="27">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C27" t="n">
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E27" t="n">
         <v>96</v>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1394]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.85014137606032</v>
+        <v>18.84865366759517</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.036757775683318</v>
+        <v>1.021355617455896</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1383]</t>
+          <t>[1414, 1435]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169, 1332, 1383, 1414]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3.992571959145776</v>
+        <v>4.170444242973708</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4642525533890436</v>
+        <v>0.4533091568449683</v>
       </c>
     </row>
     <row r="4">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
@@ -564,11 +564,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[190, 350, 366, 476, 1166]</t>
+          <t>[190, 350, 366, 476, 710, 1166]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.4642525533890436</v>
+        <v>0.5439709882139619</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.042711234911792</v>
+        <v>1.99456029011786</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E6" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[963, 1063, 1074, 1277, 1299, 1324, 1404]</t>
+          <t>[963, 1063, 1074, 1277, 1299, 1324, 1404, 1414, 1435, 1436]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1157, 1166, 1227, 1264, 1322]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 980, 983, 996, 997, 1009, 1157, 1166, 1227, 1264, 1322, 1414]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.870937790157845</v>
+        <v>6.799637352674524</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1331, 1363]</t>
+          <t>[1331, 1363, 1425]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.799442896935934</v>
+        <v>7.70625566636446</v>
       </c>
     </row>
     <row r="8">
@@ -674,29 +674,29 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1347]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.671309192200557</v>
+        <v>1.722574796010879</v>
       </c>
     </row>
     <row r="9">
@@ -709,17 +709,17 @@
         <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1445]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.578458681522748</v>
+        <v>1.541251133272892</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1101, 1184, 1294, 1347, 1358, 1408]</t>
+          <t>[960, 1101, 1184, 1347, 1408]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179, 1254, 1345]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1166, 1169, 1179, 1254, 1294, 1345, 1358]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.899721448467967</v>
+        <v>3.989120580235721</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 1333, 1354]</t>
+          <t>[9, 1416]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965, 1166]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965, 1166, 1333, 1354]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.857010213556174</v>
+        <v>1.99456029011786</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.899721448467967</v>
+        <v>3.807796917497734</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.9285051067780872</v>
+        <v>0.9066183136899365</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8356545961002786</v>
+        <v>0.8159564823209429</v>
       </c>
     </row>
     <row r="15">
@@ -901,17 +901,17 @@
         <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[1357]</t>
+          <t>[1211, 1409]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.392757660167131</v>
+        <v>1.359927470534905</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.114206128133705</v>
+        <v>1.087941976427924</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.528319405756732</v>
+        <v>3.445149592021759</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.392757660167131</v>
+        <v>1.359927470534905</v>
       </c>
     </row>
     <row r="19">
@@ -1026,29 +1026,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[752, 1087, 1348]</t>
+          <t>[1087, 1348]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 930, 1059, 1076, 1166]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 752, 930, 1059, 1076, 1166]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.042711234911792</v>
+        <v>2.085222121486854</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 989, 990, 1017, 1035, 1095, 1300, 1386]</t>
+          <t>[631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1424, 1438]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1166, 1295, 1327]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1327]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.899721448467967</v>
+        <v>3.898458748866727</v>
       </c>
     </row>
     <row r="21">
@@ -1093,17 +1093,17 @@
         <v>56</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1293, 1346]</t>
+          <t>[1293, 1346, 1434]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.199628597957289</v>
+        <v>5.077062556663645</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 841, 842, 843, 2, 976, 984, 1020, 1225, 1269, 1311, 1328, 1363, 1375, 1399, 1402, 1411]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 780, 823, 880, 955, 1049, 1069, 1088, 1166]</t>
+          <t>[25, 154, 190, 244, 296, 350, 389, 476, 499, 691, 698, 710, 780, 823, 880, 955, 1049, 1069, 1088, 1166]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.764159702878366</v>
+        <v>1.813236627379873</v>
       </c>
     </row>
     <row r="23">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E23" t="n">
         <v>98</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414, 1414]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.178272980501393</v>
+        <v>4.351767905711696</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.435468895078923</v>
+        <v>3.354487760652765</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E25" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1348]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1348, 1414]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.42061281337047</v>
+        <v>11.24206708975521</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 570, 580, 649, 650, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1295, 1296, 1327, 1355, 1365]</t>
+          <t>[354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1365]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 476, 485, 505, 526, 527, 528, 584, 607, 618, 673, 703, 737, 773, 774, 869, 982, 1049, 1166, 1170, 1171, 1240]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1049, 1166, 1170, 1171, 1240, 1295]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.456824512534819</v>
+        <v>4.895738893925658</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E27" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1379]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1379, 1414, 1430, 1435]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1394]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1394, 1411, 1414]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.84865366759517</v>
+        <v>18.5856754306437</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.021355617455896</v>
+        <v>0.9972801450589301</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1435, 1461]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169, 1332, 1383, 1414, 1453]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169, 1332, 1383, 1414, 1435, 1453, 1461]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.119193689745837</v>
+        <v>4.209621993127148</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4382120946538124</v>
+        <v>0.429553264604811</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5258545135845749</v>
+        <v>0.5154639175257731</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1272, 1333, 1336, 1354, 1489]</t>
+          <t>[1272, 1333, 1336, 1354, 1517, 1527]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288, 1489]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.928133216476775</v>
+        <v>1.97594501718213</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1277, 1435, 1456]</t>
+          <t>[1277]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 963, 980, 983, 996, 997, 1009, 1063, 1074, 1157, 1166, 1227, 1264, 1299, 1322, 1324, 1404, 1414, 1436, 1471]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 963, 980, 983, 996, 997, 1009, 1063, 1074, 1157, 1166, 1227, 1264, 1299, 1322, 1324, 1372, 1404, 1414, 1435, 1436, 1456, 1471]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.274320771253287</v>
+        <v>7.38831615120275</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.537248028045573</v>
+        <v>7.38831615120275</v>
       </c>
     </row>
     <row r="8">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299, 1521]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.665205959684487</v>
+        <v>1.718213058419244</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1445]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260, 1445]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.489921121822962</v>
+        <v>1.54639175257732</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1347]</t>
+          <t>[960, 1347, 1504, 1538]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.119193689745837</v>
+        <v>4.037800687285223</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>92</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 1416]</t>
+          <t>[9, 1515]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965, 1166, 1333, 1354]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710, 752, 756, 870, 952, 965, 1166, 1333, 1354, 1416]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.928133216476775</v>
+        <v>1.97594501718213</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.768624014022786</v>
+        <v>3.694158075601375</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8764241893076249</v>
+        <v>0.859106529209622</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7887817703768624</v>
+        <v>0.7731958762886598</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.4022787028922</v>
+        <v>1.374570446735395</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.05170902716915</v>
+        <v>1.030927835051546</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[931, 1249]</t>
+          <t>[931, 1249, 1516, 1532, 1533]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 987, 1016, 1087, 1166]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 684, 687, 704, 710, 739, 812, 821, 836, 892, 894, 909, 929, 933, 987, 1016, 1087, 1166, 1507]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.330411919368975</v>
+        <v>3.350515463917526</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.314636283961437</v>
+        <v>1.288659793814433</v>
       </c>
     </row>
     <row r="19">
@@ -1029,17 +1029,17 @@
         <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[1087]</t>
+          <t>[1087, 1496, 1524]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.1034180543383</v>
+        <v>2.061855670103093</v>
       </c>
     </row>
     <row r="20">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -1076,11 +1076,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1327]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 626, 703, 705, 710, 726, 741, 742, 771, 835, 907, 942, 1007, 1095, 1166, 1295, 1327, 1424]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.768624014022786</v>
+        <v>3.780068728522337</v>
       </c>
     </row>
     <row r="21">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.995617879053462</v>
+        <v>4.896907216494846</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[700, 1225, 1269, 1311, 1363, 1452, 1493]</t>
+          <t>[700, 2, 1311, 1493]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 166, 190, 244, 254, 296, 350, 361, 371, 389, 473, 476, 499, 609, 691, 697, 698, 710, 780, 823, 841, 842, 843, 880, 955, 976, 984, 1020, 1049, 1069, 1088, 1166, 1328, 1375, 1399, 1402, 1411]</t>
+          <t>[25, 154, 166, 190, 244, 254, 296, 350, 361, 371, 389, 473, 476, 499, 609, 691, 697, 698, 710, 780, 823, 841, 842, 843, 880, 955, 976, 984, 1020, 1049, 1069, 1088, 1166, 1225, 1269, 1328, 1363, 1375, 1399, 1402, 1411, 1452]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.330411919368975</v>
+        <v>3.608247422680412</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1226]</t>
+          <t>[1226, 1530]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414, 1499, 1501, 1504]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.119193689745837</v>
+        <v>4.29553264604811</v>
       </c>
     </row>
     <row r="24">
@@ -1189,17 +1189,17 @@
         <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[1199, 1275]</t>
+          <t>[1199, 1275, 1499, 1530]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.330411919368975</v>
+        <v>3.264604810996564</v>
       </c>
     </row>
     <row r="25">
@@ -1221,17 +1221,17 @@
         <v>124</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1348, 1458, 1460, 1477]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.86765994741455</v>
+        <v>10.65292096219931</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 580, 761, 882, 2, 1090, 1091, 1092, 1093, 1094, 1217, 1296, 1327, 1355, 1494]</t>
+          <t>[354, 389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1017, 1049, 1166, 1170, 1171, 1240, 1295]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1017, 1049, 1092, 1166, 1170, 1171, 1240, 1295, 1365, 1402]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.820333041191937</v>
+        <v>4.982817869415808</v>
       </c>
     </row>
     <row r="27">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
         <v>219</v>
@@ -1295,16 +1295,16 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1379, 1430, 1435, 1454]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1430, 1435]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1394, 1411, 1414, 1452, 1455]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1452, 1454, 1455]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>18.14198071866783</v>
+        <v>17.9553264604811</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9640666082383873</v>
+        <v>0.9450171821305842</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -500,11 +500,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169, 1332, 1383, 1414, 1435, 1453, 1461]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710, 730, 734, 878, 879, 932, 966, 981, 1166, 1169, 1332, 1383, 1414, 1435, 1453, 1461, 1524, 1540]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.209621993127148</v>
+        <v>4.336734693877551</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.429553264604811</v>
+        <v>0.4251700680272109</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5154639175257731</v>
+        <v>0.5102040816326531</v>
       </c>
     </row>
     <row r="5">
@@ -581,17 +581,17 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1272, 1333, 1336, 1354, 1517, 1527]</t>
+          <t>[1272, 1333, 1336, 1354, 1517, 1527, 1550, 1595, 1619, 1629]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.97594501718213</v>
+        <v>1.95578231292517</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1277]</t>
+          <t>[1277, 1616]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 963, 980, 983, 996, 997, 1009, 1063, 1074, 1157, 1166, 1227, 1264, 1299, 1322, 1324, 1372, 1404, 1414, 1435, 1436, 1456, 1471]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 553, 571, 572, 573, 576, 656, 666, 707, 710, 719, 800, 835, 846, 847, 848, 849, 858, 879, 908, 963, 980, 983, 996, 997, 1009, 1063, 1074, 1157, 1166, 1227, 1264, 1299, 1322, 1324, 1372, 1404, 1414, 1435, 1436, 1456, 1471, 1608, 1609]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.38831615120275</v>
+        <v>7.482993197278912</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E7" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1331, 1363, 1425]</t>
+          <t>[1331, 1363, 1425, 1550, 1631, 1636]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1452]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1452, 1596]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.38831615120275</v>
+        <v>7.397959183673469</v>
       </c>
     </row>
     <row r="8">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
         <v>95</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299, 1521]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710, 734, 744, 755, 904, 958, 1156, 1166, 1294, 1299, 1424, 1521]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.718213058419244</v>
+        <v>1.785714285714286</v>
       </c>
     </row>
     <row r="9">
@@ -709,17 +709,17 @@
         <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1595]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.54639175257732</v>
+        <v>1.530612244897959</v>
       </c>
     </row>
     <row r="10">
@@ -741,17 +741,17 @@
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1347, 1504, 1538]</t>
+          <t>[960, 1347, 1504, 1538, 1604, 1628]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.037800687285223</v>
+        <v>3.996598639455783</v>
       </c>
     </row>
     <row r="11">
@@ -773,17 +773,17 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 1515]</t>
+          <t>[9, 1515, 1596]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.97594501718213</v>
+        <v>1.95578231292517</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.694158075601375</v>
+        <v>3.656462585034014</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.859106529209622</v>
+        <v>0.8503401360544218</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7731958762886598</v>
+        <v>0.7653061224489796</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.374570446735395</v>
+        <v>1.360544217687075</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.030927835051546</v>
+        <v>1.020408163265306</v>
       </c>
     </row>
     <row r="17">
@@ -965,17 +965,17 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[931, 1249, 1516, 1532, 1533]</t>
+          <t>[931, 1249, 1516, 1532, 1533, 1614]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.350515463917526</v>
+        <v>3.316326530612245</v>
       </c>
     </row>
     <row r="18">
@@ -997,17 +997,17 @@
         <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1592]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.288659793814433</v>
+        <v>1.275510204081633</v>
       </c>
     </row>
     <row r="19">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
         <v>89</v>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 752, 930, 1059, 1076, 1166, 1348]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 711, 721, 752, 930, 1059, 1076, 1166, 1348, 1613]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.061855670103093</v>
+        <v>2.125850340136054</v>
       </c>
     </row>
     <row r="20">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.780068728522337</v>
+        <v>3.741496598639456</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" t="n">
         <v>97</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1293, 1434]</t>
+          <t>[1293, 1606]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1273, 1316, 1346]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1273, 1316, 1346, 1434]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.896907216494846</v>
+        <v>4.931972789115646</v>
       </c>
     </row>
     <row r="22">
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
         <v>91</v>
@@ -1140,11 +1140,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 166, 190, 244, 254, 296, 350, 361, 371, 389, 473, 476, 499, 609, 691, 697, 698, 710, 780, 823, 841, 842, 843, 880, 955, 976, 984, 1020, 1049, 1069, 1088, 1166, 1225, 1269, 1328, 1363, 1375, 1399, 1402, 1411, 1452]</t>
+          <t>[25, 154, 166, 190, 244, 254, 296, 350, 361, 371, 389, 473, 476, 499, 609, 691, 697, 698, 710, 780, 823, 841, 842, 843, 880, 955, 976, 984, 1020, 1049, 1069, 1088, 1166, 1225, 1269, 1328, 1363, 1375, 1399, 1402, 1411, 1452, 1596]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.608247422680412</v>
+        <v>3.656462585034014</v>
       </c>
     </row>
     <row r="23">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.29553264604811</v>
+        <v>4.251700680272108</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.264604810996564</v>
+        <v>3.231292517006803</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D25" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E25" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528]</t>
+          <t>[13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528, 1543, 1544, 1607]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.65292096219931</v>
+        <v>10.62925170068027</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
         <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508]</t>
+          <t>[389, 580, 761, 882, 2, 1090, 1091, 1093, 1094, 1217, 1296, 1327, 1355, 1494, 1508]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1017, 1049, 1092, 1166, 1170, 1171, 1240, 1295, 1365, 1402]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 354, 359, 283, 374, 376, 377, 404, 405, 413, 443, 476, 485, 505, 526, 527, 528, 570, 584, 607, 618, 649, 650, 673, 703, 710, 737, 773, 774, 869, 982, 1017, 1049, 1092, 1166, 1170, 1171, 1240, 1295, 1365, 1402]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.982817869415808</v>
+        <v>5.017006802721088</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E27" t="n">
         <v>95</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1430, 1435]</t>
+          <t>[695, 835, 868, 875, 916, 917, 1349, 1376, 1435, 1596]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1452, 1454, 1455]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17.9553264604811</v>
+        <v>17.85714285714286</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9450171821305842</v>
+        <v>0.935374149659864</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -1125,17 +1125,17 @@
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[700, 2, 1311, 1493]</t>
+          <t>[700, 1311, 1493]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.336734693877551</v>
+        <v>4.235880398671096</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4251700680272109</v>
+        <v>0.4152823920265781</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5102040816326531</v>
+        <v>0.4983388704318937</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1272, 1333, 1336, 1354, 1517, 1527, 1550, 1595, 1619, 1629]</t>
+          <t>[1272, 1629]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288, 1489]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710, 734, 743, 873, 879, 924, 1083, 1166, 1194, 1288, 1333, 1336, 1354, 1489, 1517, 1527, 1550, 1595, 1619]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.95578231292517</v>
+        <v>2.574750830564784</v>
       </c>
     </row>
     <row r="6">
@@ -613,17 +613,17 @@
         <v>88</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[1277, 1616]</t>
+          <t>[1277]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.482993197278912</v>
+        <v>7.308970099667775</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[1331, 1363, 1425, 1550, 1631, 1636]</t>
+          <t>[1331, 1363, 1425, 1631, 1636]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1452, 1596]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710, 748, 780, 823, 828, 922, 933, 972, 981, 998, 1012, 1019, 1020, 1031, 1065, 1087, 1088, 1146, 1157, 1166, 1214, 1269, 1375, 1394, 1411, 1452, 1550, 1596, 1652]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.397959183673469</v>
+        <v>7.392026578073089</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.785714285714286</v>
+        <v>1.744186046511628</v>
       </c>
     </row>
     <row r="9">
@@ -706,29 +706,29 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[1595]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260, 1445]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710, 711, 752, 837, 1087, 1166, 1260, 1445, 1595]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.530612244897959</v>
+        <v>1.578073089700997</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[960, 1347, 1504, 1538, 1604, 1628]</t>
+          <t>[1604, 1628]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 1034, 1040, 1101, 1166, 1169, 1179, 1184, 1254, 1294, 1345, 1358, 1408]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 625, 628, 636, 646, 655, 671, 710, 728, 755, 781, 790, 835, 836, 886, 929, 935, 960, 1034, 1040, 1101, 1166, 1169, 1179, 1184, 1254, 1294, 1345, 1347, 1358, 1408, 1504]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.996598639455783</v>
+        <v>4.152823920265781</v>
       </c>
     </row>
     <row r="11">
@@ -773,17 +773,17 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 1515, 1596]</t>
+          <t>[9, 1515, 1596, 1656]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.95578231292517</v>
+        <v>1.910299003322259</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.656462585034014</v>
+        <v>3.571428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -837,17 +837,17 @@
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[906]</t>
+          <t>[906, 1615]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8503401360544218</v>
+        <v>0.8305647840531563</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7653061224489796</v>
+        <v>0.7475083056478405</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.360544217687075</v>
+        <v>1.32890365448505</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.020408163265306</v>
+        <v>0.9966777408637874</v>
       </c>
     </row>
     <row r="17">
@@ -965,17 +965,17 @@
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[931, 1249, 1516, 1532, 1533, 1614]</t>
+          <t>[931, 1249, 1516, 1532, 1533, 1614, 1650]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.316326530612245</v>
+        <v>3.239202657807309</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.275510204081633</v>
+        <v>1.245847176079734</v>
       </c>
     </row>
     <row r="19">
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.125850340136054</v>
+        <v>2.07641196013289</v>
       </c>
     </row>
     <row r="20">
@@ -1061,17 +1061,17 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494]</t>
+          <t>[631, 989, 990, 1017, 1035, 1300, 1386, 1409, 1438, 1486, 1494, 1667]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.741496598639456</v>
+        <v>3.654485049833887</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>60</v>
       </c>
       <c r="E21" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[1293, 1606]</t>
+          <t>[1293]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1273, 1316, 1346, 1434]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 701, 710, 712, 720, 736, 758, 814, 824, 869, 896, 897, 907, 973, 974, 998, 1028, 1035, 1051, 1060, 1095, 1166, 1175, 1207, 1248, 1273, 1316, 1346, 1434, 1606]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.931972789115646</v>
+        <v>4.900332225913622</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[700, 1311, 1493]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 166, 190, 244, 254, 296, 350, 361, 371, 389, 473, 476, 499, 609, 691, 697, 698, 710, 780, 823, 841, 842, 843, 880, 955, 976, 984, 1020, 1049, 1069, 1088, 1166, 1225, 1269, 1328, 1363, 1375, 1399, 1402, 1411, 1452, 1596]</t>
+          <t>[25, 92, 154, 166, 190, 244, 254, 296, 350, 361, 371, 389, 473, 476, 499, 609, 691, 697, 698, 700, 710, 780, 823, 841, 842, 843, 880, 955, 976, 984, 1020, 1049, 1069, 1072, 1088, 1166, 1225, 1269, 1311, 1328, 1363, 1375, 1399, 1402, 1411, 1452, 1493, 1596, 1636, 1652]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.656462585034014</v>
+        <v>4.152823920265781</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[1226, 1530]</t>
+          <t>[1226]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414, 1499, 1501, 1504]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712, 736, 790, 802, 835, 861, 879, 888, 941, 944, 962, 1027, 1039, 1166, 1179, 1306, 1312, 1388, 1414, 1499, 1501, 1504, 1530]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.251700680272108</v>
+        <v>4.235880398671096</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.231292517006803</v>
+        <v>3.156146179401993</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 644, 657, 699, 1018, 1183, 1348, 1460, 1477, 1504, 1528, 1543, 1544, 1607]</t>
+          <t>[13, 644, 699, 1018, 1183, 1348, 1460, 1504, 1528, 1543, 1665]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 34, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 603, 613, 614, 617, 627, 630, 638, 639, 641, 642, 659, 669, 675, 685, 686, 690, 710, 722, 737, 750, 753, 769, 792, 815, 829, 837, 840, 860, 861, 864, 877, 879, 888, 891, 941, 948, 1008, 1049, 1064, 1158, 1166, 1204, 1226, 1240, 1247, 1259, 1260, 1306, 1312, 1318, 1325, 1329, 1337, 1355, 1388, 1414, 1458, 1477]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10.62925170068027</v>
+        <v>10.46511627906977</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.017006802721088</v>
+        <v>4.900332225913622</v>
       </c>
     </row>
     <row r="27">
@@ -1282,16 +1282,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1300,11 +1300,11 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 547, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 680, 682, 683, 689, 692, 697, 698, 700, 710, 748, 762, 764, 770, 776, 779, 780, 793, 794, 818, 820, 823, 839, 851, 871, 898, 920, 922, 925, 926, 931, 972, 998, 1016, 1023, 1055, 1058, 1065, 1071, 1088, 1108, 1109, 1146, 1155, 1163, 1166, 1173, 1174, 1180, 1192, 1205, 1210, 1212, 1214, 1237, 1238, 1249, 1269, 1282, 1291, 1292, 1293, 1330, 1331, 1341, 1342, 1363, 1375, 1379, 1394, 1411, 1414, 1430, 1452, 1454, 1455, 1636, 1676, 1677, 1678]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17.85714285714286</v>
+        <v>17.77408637873754</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.935374149659864</v>
+        <v>0.9136212624584719</v>
       </c>
     </row>
   </sheetData>
